--- a/data/trans_orig/P70A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70A_2023-Edad-trans_orig.xlsx
@@ -741,16 +741,16 @@
         <v>18715</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11311</v>
+        <v>11375</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>20561</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9101963369152625</v>
+        <v>0.9101963369152626</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5501158223826885</v>
+        <v>0.5532214780268183</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -762,19 +762,19 @@
         <v>12154</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6189</v>
+        <v>5261</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17679</v>
+        <v>17254</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.6185819772056342</v>
+        <v>0.6185819772056341</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3150002826014581</v>
+        <v>0.2677875269890179</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8998045978939359</v>
+        <v>0.8781555069917016</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -783,19 +783,19 @@
         <v>30869</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21971</v>
+        <v>20467</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36644</v>
+        <v>36805</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7677013155754606</v>
+        <v>0.7677013155754602</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5464092485019768</v>
+        <v>0.5090094462307455</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9113313300832271</v>
+        <v>0.9153544298030263</v>
       </c>
     </row>
     <row r="5">
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9084</v>
+        <v>7013</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.06738218400015508</v>
+        <v>0.06738218400015507</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4623602829851743</v>
+        <v>0.3569326773414379</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -849,16 +849,16 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6413</v>
+        <v>7549</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.03292576454940453</v>
+        <v>0.03292576454940451</v>
       </c>
       <c r="V5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1594817020533101</v>
+        <v>0.1877556992487409</v>
       </c>
     </row>
     <row r="6">
@@ -878,16 +878,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9250</v>
+        <v>9186</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.08980366308473746</v>
+        <v>0.08980366308473747</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4498841776173114</v>
+        <v>0.4467785219731812</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -896,19 +896,19 @@
         <v>6170</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1789</v>
+        <v>1800</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12693</v>
+        <v>13037</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.3140358387942107</v>
+        <v>0.3140358387942106</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09106522455050343</v>
+        <v>0.09160198241912275</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.646005202617826</v>
+        <v>0.6635248757595819</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -917,19 +917,19 @@
         <v>8017</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3145</v>
+        <v>2238</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>17613</v>
+        <v>17997</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1993729198751352</v>
+        <v>0.1993729198751351</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07820723829796372</v>
+        <v>0.0556626181988667</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4380357056660205</v>
+        <v>0.4475922288181803</v>
       </c>
     </row>
     <row r="7">
@@ -1021,19 +1021,19 @@
         <v>58099</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>47212</v>
+        <v>47095</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>65579</v>
+        <v>65491</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7772342679151465</v>
+        <v>0.7772342679151463</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.631593957840852</v>
+        <v>0.6300315157348102</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8773056526997388</v>
+        <v>0.8761168411801871</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>63</v>
@@ -1042,19 +1042,19 @@
         <v>72014</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>63821</v>
+        <v>64576</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>77052</v>
+        <v>77063</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8669479902462455</v>
+        <v>0.8669479902462458</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7683133635076703</v>
+        <v>0.7774052855644348</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9276023787447542</v>
+        <v>0.9277322290997499</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>96</v>
@@ -1063,19 +1063,19 @@
         <v>130113</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>117959</v>
+        <v>116872</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>139851</v>
+        <v>140028</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.824454447654873</v>
+        <v>0.8244544476548727</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7474392817054695</v>
+        <v>0.7405566360667986</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8861571770617559</v>
+        <v>0.8872797014041648</v>
       </c>
     </row>
     <row r="9">
@@ -1092,19 +1092,19 @@
         <v>6473</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1658</v>
+        <v>1723</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15124</v>
+        <v>15185</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.08659947848967908</v>
+        <v>0.08659947848967907</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.022176945276865</v>
+        <v>0.02305223534709318</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2023294842429948</v>
+        <v>0.2031380012080313</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -1113,19 +1113,19 @@
         <v>5203</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1994</v>
+        <v>1973</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11312</v>
+        <v>10662</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06263189070484651</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02400568272152242</v>
+        <v>0.02375694607444464</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1361786716873059</v>
+        <v>0.128355388844274</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>9</v>
@@ -1134,19 +1134,19 @@
         <v>11676</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5694</v>
+        <v>5832</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>21068</v>
+        <v>22015</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.07398430910733426</v>
+        <v>0.07398430910733425</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03607715167801844</v>
+        <v>0.03695421887350882</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1334989553598102</v>
+        <v>0.1394955158227856</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>10179</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4749</v>
+        <v>4555</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20726</v>
+        <v>19812</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1361662535951747</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0635336841244787</v>
+        <v>0.0609375794762473</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2772608338169433</v>
+        <v>0.2650410611146359</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1184,19 +1184,19 @@
         <v>5850</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2055</v>
+        <v>2180</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12431</v>
+        <v>12379</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07042011904890791</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02473860085818404</v>
+        <v>0.0262407455375461</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1496572894833809</v>
+        <v>0.1490232197638859</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -1205,19 +1205,19 @@
         <v>16028</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8953</v>
+        <v>9241</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26350</v>
+        <v>27889</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.101561243237793</v>
+        <v>0.1015612432377929</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05672717289731523</v>
+        <v>0.05855418091071399</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1669649418442132</v>
+        <v>0.1767166780688746</v>
       </c>
     </row>
     <row r="11">
@@ -1309,19 +1309,19 @@
         <v>88298</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>79585</v>
+        <v>78648</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>95034</v>
+        <v>94877</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8404054250198054</v>
+        <v>0.8404054250198053</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7574720277181903</v>
+        <v>0.7485571254822999</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9045193919694932</v>
+        <v>0.9030200635705165</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>123</v>
@@ -1330,19 +1330,19 @@
         <v>91407</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>83889</v>
+        <v>84289</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>97272</v>
+        <v>97433</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8266325647969972</v>
+        <v>0.8266325647969971</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7586423189490349</v>
+        <v>0.7622615306970504</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8796723119332509</v>
+        <v>0.8811262551361584</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>198</v>
@@ -1351,19 +1351,19 @@
         <v>179705</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>167124</v>
+        <v>168736</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>189395</v>
+        <v>189522</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.833342985976428</v>
+        <v>0.8333429859764279</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7749989720451566</v>
+        <v>0.782475670302182</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8782754827635907</v>
+        <v>0.8788651617233001</v>
       </c>
     </row>
     <row r="13">
@@ -1380,19 +1380,19 @@
         <v>13732</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7806</v>
+        <v>7641</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22957</v>
+        <v>23111</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1306974612877922</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07429273618414725</v>
+        <v>0.07272759697170755</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.218499479062771</v>
+        <v>0.2199699004125475</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -1401,19 +1401,19 @@
         <v>10143</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5326</v>
+        <v>5886</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16268</v>
+        <v>16676</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.0917299691084892</v>
+        <v>0.09172996910848917</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04816329594871293</v>
+        <v>0.05323012973195717</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1471222699999141</v>
+        <v>0.1508107329845567</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -1422,19 +1422,19 @@
         <v>23875</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15688</v>
+        <v>15869</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34790</v>
+        <v>34175</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1107157339096355</v>
+        <v>0.1107157339096354</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07274965113670229</v>
+        <v>0.07358834336812313</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1613301881499262</v>
+        <v>0.1584771207347089</v>
       </c>
     </row>
     <row r="14">
@@ -1451,19 +1451,19 @@
         <v>3036</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>885</v>
+        <v>895</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8323</v>
+        <v>8218</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02889711369240228</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008425180224431112</v>
+        <v>0.008521528073820657</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07921223490897085</v>
+        <v>0.07821536337745096</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -1472,19 +1472,19 @@
         <v>9027</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4876</v>
+        <v>5100</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14946</v>
+        <v>14996</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.08163746609451372</v>
+        <v>0.08163746609451371</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0440987234435283</v>
+        <v>0.04612404056508879</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1351630263406849</v>
+        <v>0.1356151448041931</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -1493,19 +1493,19 @@
         <v>12063</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7157</v>
+        <v>6789</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19215</v>
+        <v>19383</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.05594128011393656</v>
+        <v>0.05594128011393654</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03318975528614566</v>
+        <v>0.0314846857634522</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08910403202583114</v>
+        <v>0.08988261783635935</v>
       </c>
     </row>
     <row r="15">
@@ -1597,19 +1597,19 @@
         <v>104014</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>92290</v>
+        <v>92738</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>114247</v>
+        <v>114742</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7286010448719692</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6464726425204956</v>
+        <v>0.6496144425933016</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8002793776357344</v>
+        <v>0.803748957419495</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>136</v>
@@ -1618,19 +1618,19 @@
         <v>90041</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>81899</v>
+        <v>82143</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>96821</v>
+        <v>96838</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.7432837910528804</v>
+        <v>0.7432837910528806</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6760652580283109</v>
+        <v>0.6780850669084653</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7992496869229354</v>
+        <v>0.7993867219413419</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>235</v>
@@ -1639,19 +1639,19 @@
         <v>194056</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>179652</v>
+        <v>179258</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>207657</v>
+        <v>206715</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7353410102991759</v>
+        <v>0.7353410102991756</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6807596032726591</v>
+        <v>0.6792674859042298</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7868801636427067</v>
+        <v>0.7833102931852802</v>
       </c>
     </row>
     <row r="17">
@@ -1668,19 +1668,19 @@
         <v>13592</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7920</v>
+        <v>7941</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22101</v>
+        <v>21749</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.09520765092257891</v>
+        <v>0.09520765092257892</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05547621817213091</v>
+        <v>0.0556229973196929</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1548128416919493</v>
+        <v>0.1523458312807847</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>25</v>
@@ -1689,19 +1689,19 @@
         <v>15392</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10388</v>
+        <v>10686</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21893</v>
+        <v>21727</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.127062354981032</v>
+        <v>0.1270623549810321</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08575060421452405</v>
+        <v>0.08820800126775369</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1807209762938798</v>
+        <v>0.1793510247323004</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>39</v>
@@ -1710,19 +1710,19 @@
         <v>28984</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>20174</v>
+        <v>20071</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>38596</v>
+        <v>37677</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1098302291107789</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0764476705592933</v>
+        <v>0.07605742525821381</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1462518781248531</v>
+        <v>0.1427688328649727</v>
       </c>
     </row>
     <row r="18">
@@ -1739,19 +1739,19 @@
         <v>25153</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16103</v>
+        <v>16059</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>35653</v>
+        <v>35611</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1761913042054517</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.112799053694027</v>
+        <v>0.11248691882287</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2497426641513655</v>
+        <v>0.2494506742354629</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>23</v>
@@ -1760,19 +1760,19 @@
         <v>15706</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>10397</v>
+        <v>10681</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>22515</v>
+        <v>22386</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1296538539660875</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08582518911928567</v>
+        <v>0.08816719871107653</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1858621035888722</v>
+        <v>0.1847911244379953</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>45</v>
@@ -1781,19 +1781,19 @@
         <v>40859</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>29526</v>
+        <v>30469</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>53621</v>
+        <v>53148</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.1548287605900453</v>
+        <v>0.1548287605900452</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1118820071484385</v>
+        <v>0.1154580586928085</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.203187664172116</v>
+        <v>0.2013952442454698</v>
       </c>
     </row>
     <row r="19">
@@ -1885,19 +1885,19 @@
         <v>47220</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>38691</v>
+        <v>39010</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>55171</v>
+        <v>54747</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6150342046100219</v>
+        <v>0.6150342046100216</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5039409055389126</v>
+        <v>0.5080988577731451</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7185896589832962</v>
+        <v>0.7130678858883192</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>74</v>
@@ -1906,19 +1906,19 @@
         <v>45670</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>39314</v>
+        <v>39269</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>51901</v>
+        <v>51830</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6699746239016597</v>
+        <v>0.66997462390166</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5767337520569638</v>
+        <v>0.5760661038508642</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7613816258092242</v>
+        <v>0.7603360345137827</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>127</v>
@@ -1927,19 +1927,19 @@
         <v>92891</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>82942</v>
+        <v>82279</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>102708</v>
+        <v>103266</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6408725627691322</v>
+        <v>0.6408725627691323</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5722331142300965</v>
+        <v>0.5676612114126949</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7086033386177988</v>
+        <v>0.7124574591140113</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>13647</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8243</v>
+        <v>8292</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>21009</v>
+        <v>21035</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1777527056874585</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1073629391673565</v>
+        <v>0.1080068042725403</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2736373774182401</v>
+        <v>0.2739781181027289</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>18</v>
@@ -1977,19 +1977,19 @@
         <v>10549</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6419</v>
+        <v>6893</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>15622</v>
+        <v>16526</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1547589079252355</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09417217799762984</v>
+        <v>0.101119606426758</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2291718041595042</v>
+        <v>0.2424271466978098</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>32</v>
@@ -1998,19 +1998,19 @@
         <v>24197</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>16799</v>
+        <v>17156</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>32986</v>
+        <v>32896</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1669387732552227</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1158998570597062</v>
+        <v>0.118363878222832</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2275799075099453</v>
+        <v>0.22695674499347</v>
       </c>
     </row>
     <row r="22">
@@ -2027,19 +2027,19 @@
         <v>15909</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9702</v>
+        <v>10345</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>23669</v>
+        <v>24562</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2072130897025199</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1263655179033609</v>
+        <v>0.1347440297551799</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3082853669172173</v>
+        <v>0.3199159288213579</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -2048,19 +2048,19 @@
         <v>11947</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7675</v>
+        <v>7832</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17528</v>
+        <v>17499</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.1752664681731046</v>
+        <v>0.1752664681731047</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.112589296175994</v>
+        <v>0.1148878618687197</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2571268154433097</v>
+        <v>0.2567034839805601</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>36</v>
@@ -2069,19 +2069,19 @@
         <v>27857</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>20149</v>
+        <v>20644</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>36691</v>
+        <v>37853</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1921886639756449</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1390098914531517</v>
+        <v>0.1424245870538568</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2531358265014814</v>
+        <v>0.2611564028006427</v>
       </c>
     </row>
     <row r="23">
@@ -2173,19 +2173,19 @@
         <v>316347</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>296687</v>
+        <v>296105</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>336206</v>
+        <v>335188</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.7533601824342246</v>
+        <v>0.7533601824342245</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7065399209375233</v>
+        <v>0.705155538978731</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.800651592902668</v>
+        <v>0.7982283791511208</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>403</v>
@@ -2194,19 +2194,19 @@
         <v>311287</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>295572</v>
+        <v>295999</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>325395</v>
+        <v>326469</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7731930255181153</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7341589382417096</v>
+        <v>0.7352210494221351</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8082349379552026</v>
+        <v>0.8109025161142157</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>671</v>
@@ -2215,19 +2215,19 @@
         <v>627634</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>603940</v>
+        <v>601595</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>652608</v>
+        <v>650017</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.7630678372013731</v>
+        <v>0.7630678372013728</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7342612209257195</v>
+        <v>0.7314094829899477</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7934312901474434</v>
+        <v>0.7902811489668338</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>47444</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>35268</v>
+        <v>34987</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>61683</v>
+        <v>63335</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1129858344849021</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0839891352245407</v>
+        <v>0.08331925361572995</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1468938984918446</v>
+        <v>0.1508269598305297</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>63</v>
@@ -2265,19 +2265,19 @@
         <v>42612</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>32828</v>
+        <v>32998</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>53911</v>
+        <v>53097</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1058413531813367</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08154080123439504</v>
+        <v>0.08196155007481186</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1339075765859358</v>
+        <v>0.1318847207260938</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>106</v>
@@ -2286,19 +2286,19 @@
         <v>90056</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>74676</v>
+        <v>75130</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>107263</v>
+        <v>107694</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1094887989014515</v>
+        <v>0.1094887989014514</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09079003467502113</v>
+        <v>0.09134218556939347</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1304089531368687</v>
+        <v>0.1309333082741544</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>56123</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>42804</v>
+        <v>42890</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>72096</v>
+        <v>73309</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1336539830808733</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1019345817901591</v>
+        <v>0.1021389132999431</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1716907081873514</v>
+        <v>0.1745801736555647</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>63</v>
@@ -2336,19 +2336,19 @@
         <v>48701</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>37723</v>
+        <v>37081</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>63073</v>
+        <v>61585</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1209656213005479</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0936979194344809</v>
+        <v>0.09210322614339148</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1566649472799097</v>
+        <v>0.1529697025503958</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>113</v>
@@ -2357,19 +2357,19 @@
         <v>104824</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>86657</v>
+        <v>86608</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>124600</v>
+        <v>126518</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1274433638971756</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1053557501763695</v>
+        <v>0.1052963510258097</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1514872190587232</v>
+        <v>0.1538182130259655</v>
       </c>
     </row>
     <row r="27">
